--- a/projects_vineet.xlsx
+++ b/projects_vineet.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>delliote - virtual assistance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>The Value Research Investment Advice &amp; Counseling Platform for personalized recommendations</t>
   </si>
   <si>
     <t>Tesco Automatic Gap Scan.pdf</t>
-  </si>
-  <si>
-    <t>conditional</t>
   </si>
   <si>
     <t>Future Product Availability – A key differentiator for efficient order management - Tesco</t>
@@ -68,6 +62,36 @@
   </si>
   <si>
     <t>BARC -NU</t>
+  </si>
+  <si>
+    <t>BANGALORE</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
+    <t>BANGALORE- conditional</t>
+  </si>
+  <si>
+    <t>conditional - bangalore</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Course5  intelligence customer segmentation</t>
   </si>
 </sst>
 </file>
@@ -399,77 +423,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/projects_vineet.xlsx
+++ b/projects_vineet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>The Value Research Investment Advice &amp; Counseling Platform for personalized recommendations</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Future Product Availability – A key differentiator for efficient order management - Tesco</t>
-  </si>
-  <si>
-    <t>Digitise Doctors’ handwritten prescriptions using vision and deep learning techniques</t>
   </si>
   <si>
     <t>Intelligent Clinical Workflow System</t>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>HYDERABAD</t>
-  </si>
-  <si>
-    <t>BANGALORE- conditional</t>
   </si>
   <si>
     <t>conditional - bangalore</t>
@@ -421,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,108 +429,103 @@
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/projects_vineet.xlsx
+++ b/projects_vineet.xlsx
@@ -24,25 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>The Value Research Investment Advice &amp; Counseling Platform for personalized recommendations</t>
   </si>
   <si>
-    <t>Tesco Automatic Gap Scan.pdf</t>
-  </si>
-  <si>
     <t>Future Product Availability – A key differentiator for efficient order management - Tesco</t>
   </si>
   <si>
     <t>Intelligent Clinical Workflow System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transactional and Knowledge based virtual assistant for vehicle breakdown assistance. </t>
-  </si>
-  <si>
-    <t>Deep Learning based vehicle damage detection and repair cost predictor for Auto Insurance
-sector.</t>
   </si>
   <si>
     <t xml:space="preserve">Personalized service bundling for ASHOK LEYLAND KEY ACCOUNT </t>
@@ -73,19 +63,7 @@
     <t>ANY</t>
   </si>
   <si>
-    <t>HYDERABAD</t>
-  </si>
-  <si>
-    <t>conditional - bangalore</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Course5  intelligence customer segmentation</t>
+    <t>HYDERABAD - data</t>
   </si>
 </sst>
 </file>
@@ -101,10 +79,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -135,6 +115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,105 +408,58 @@
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
